--- a/documents/RTM.xlsx
+++ b/documents/RTM.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="-15" yWindow="-15" windowWidth="15480" windowHeight="6555"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirement_Traceability_Matrix" sheetId="2" r:id="rId1"/>
+    <sheet name="RTM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirement_Traceability_Matrix!$A$2:$K$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Requirement_Traceability_Matrix!$A$1:$M$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirement_Traceability_Matrix!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RTM!$A$1:$K$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RTM!$A$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">RTM!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -24,7 +24,7 @@
     <author>eze3</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>001</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>REQUIREMENTS TRACEABILITY MATRIX</t>
-  </si>
-  <si>
     <t>REQ ID</t>
   </si>
   <si>
@@ -453,6 +450,42 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Password is not in clear format when stored in the database</t>
+  </si>
+  <si>
+    <t>Forms have validation conditions</t>
+  </si>
+  <si>
+    <t>Web Version</t>
+  </si>
+  <si>
+    <t>Auto sign off after 15 minutes of idle time or parametarized</t>
+  </si>
+  <si>
+    <t>Client travel details is safe and secured</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Mobile Version</t>
+  </si>
+  <si>
+    <t>Redesign GUI to be well fitted in a mobile screen</t>
+  </si>
+  <si>
+    <t>Can run in different platforms</t>
+  </si>
+  <si>
+    <t>Apply same functions that apply in the web version</t>
+  </si>
+  <si>
+    <t>All modules</t>
+  </si>
+  <si>
+    <t>Apply security measures</t>
   </si>
 </sst>
 </file>
@@ -462,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -506,19 +539,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="8"/>
@@ -533,8 +553,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,8 +585,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -743,26 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -793,6 +805,74 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -874,71 +954,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -978,6 +1052,27 @@
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1271,10 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1295,70 +1391,74 @@
     <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="21">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.5" customHeight="1">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="27.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="44"/>
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
       <c r="F3" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1372,14 +1472,14 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="42"/>
+      <c r="B4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="37"/>
       <c r="D4" s="4"/>
       <c r="E4" s="8"/>
       <c r="F4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1393,14 +1493,16 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="42"/>
+      <c r="B5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8"/>
       <c r="F5" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1414,14 +1516,14 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="42"/>
+      <c r="B6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
       <c r="F6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1435,14 +1537,14 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="42"/>
+      <c r="B7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="37"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
       <c r="F7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1452,18 +1554,18 @@
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1">
+    <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="42"/>
+      <c r="B8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
       <c r="F8" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1477,14 +1579,14 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="42"/>
+      <c r="B9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="37"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1498,14 +1600,14 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="42"/>
+      <c r="B10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="37"/>
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
       <c r="F10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1519,14 +1621,14 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="B11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
       <c r="F11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1540,14 +1642,14 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="42"/>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="37"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
       <c r="F12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1561,14 +1663,14 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="42"/>
+      <c r="B13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="37"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="45" t="s">
-        <v>62</v>
+      <c r="F13" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1578,15 +1680,19 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="37"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1595,15 +1701,19 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="37"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1612,15 +1722,19 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="25.5">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="4"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1629,15 +1743,19 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1646,32 +1764,36 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="37"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1680,15 +1802,19 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1697,15 +1823,19 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="31.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="37"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1716,13 +1846,17 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="37"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1733,10 +1867,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
       <c r="F23" s="21"/>
@@ -1750,10 +1884,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="21"/>
@@ -1767,10 +1901,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
       <c r="F25" s="21"/>
@@ -1784,10 +1918,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
       <c r="F26" s="21"/>
@@ -1801,10 +1935,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
@@ -1818,10 +1952,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="42"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
@@ -1835,10 +1969,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
@@ -1852,10 +1986,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
       <c r="F30" s="21"/>
@@ -1869,10 +2003,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
       <c r="F31" s="21"/>
@@ -1886,10 +2020,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="42"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
@@ -1903,10 +2037,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
       <c r="F33" s="21"/>
@@ -1920,10 +2054,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="42"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8"/>
       <c r="F34" s="21"/>
@@ -1936,11 +2070,11 @@
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
       <c r="F35" s="22"/>
@@ -1952,16 +2086,19 @@
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13">
-      <c r="L36" s="25"/>
+    <row r="36" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A36" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="M37" s="25"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A18:K18"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C36:G65531 G2 J2:K2 J1:M1 C1:G1">
+  <conditionalFormatting sqref="C36:G65531 G1 J1:K1">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -1972,7 +2109,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C35">
+  <conditionalFormatting sqref="C3:C17 C19:C35">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -1984,7 +2121,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17 C19:C35">
       <formula1>"In Progress, Testing, Completed"</formula1>
     </dataValidation>
   </dataValidations>
